--- a/bug_report/BugReport.XLSX
+++ b/bug_report/BugReport.XLSX
@@ -1,43 +1,130 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3D98109-52F7-461B-8C12-1B5C095EFA24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C399A4AF-B58C-4B71-8E99-079B9BC3C45E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Steps to reproduse</t>
+  </si>
+  <si>
+    <t>Reprodusibillity</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Symptom</t>
+  </si>
+  <si>
+    <t>Workaround</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Attachments</t>
+  </si>
+  <si>
+    <t>Always</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>При изменение номера телефона, смс приходит на старый</t>
+  </si>
+  <si>
+    <t>При вводе нового номера телефона и нажатии на кнопку 
+"Получить код", смс приходит на старый номер телефона.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Условия 
+Пользователь авторизирован
+Шаги
+1. Ввести номер телефона
+2. Нажать кнопку получить код
+Ожидаемый результат
+2. Код пришёл на новый номер
+Фактический результат
+2. Код пришёл на старый номер телефона</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -45,15 +132,259 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,9 +400,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -85,7 +416,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +428,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -109,12 +440,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -144,12 +475,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -179,9 +527,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -330,13 +695,523 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A614A8D0-1284-4E54-8599-5A9E283BC962}">
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="35" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="42"/>
+      <c r="O1" s="43"/>
+    </row>
+    <row r="2" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
+        <v>11</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="12"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22" s="40"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="36"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="6"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B26"/>
+    <mergeCell ref="C23:D26"/>
+    <mergeCell ref="E23:F26"/>
+    <mergeCell ref="G23:I26"/>
+    <mergeCell ref="J23:L26"/>
+    <mergeCell ref="N23:O26"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="A2:B21"/>
+    <mergeCell ref="C2:F21"/>
+    <mergeCell ref="G2:L21"/>
+    <mergeCell ref="M2:O21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>